--- a/biology/Zoologie/Chiasmocleis_haddadi/Chiasmocleis_haddadi.xlsx
+++ b/biology/Zoologie/Chiasmocleis_haddadi/Chiasmocleis_haddadi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chiasmocleis haddadi est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chiasmocleis haddadi est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Guyane ;
 dans le sud du Suriname ;
 au Brésil dans l'État d'Amapá.</t>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 12 spécimens mâles observés lors de la description originale mesurent entre 13,7 mm et 18,2 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 12 spécimens mâles observés lors de la description originale mesurent entre 13,7 mm et 18,2 mm.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Célio Fernando Baptista Haddad[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Célio Fernando Baptista Haddad.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Peloso, Sturaro, Forlani, Gaucher, Motta &amp; Wheeler, 2014 : Phylogeny, taxonomic revision, and character evolution of the genera Chiasmocleis and Syncope (Anura, Microhylidae) in Amazonia, with descriptions of three new species. Bulletin of the American Museum of Natural History, no 136, p. 1–96 (texte intégral).</t>
         </is>
